--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D84901-D5F1-4799-9B94-B57584EE5B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5505D7-4425-4D5C-8E99-CA406CD4B348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19107,7 +19107,7 @@
     <tableColumn id="6" xr3:uid="{2162BA3C-E47D-4C33-A039-F58A3774A2DD}" name="MINI CODIGO"/>
     <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES"/>
     <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO EN SOLES" dataDxfId="0">
-      <calculatedColumnFormula>(1.18*1.18*3.62*Tabla1[[#This Row],[PRECIO $]])+19</calculatedColumnFormula>
+      <calculatedColumnFormula>(IF(D2&gt;1000, (D2*1.18)+19, IF(D2&gt;100, D2*1.27, D2*1.36)))*1.18*3.6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19404,7 +19404,7 @@
   <dimension ref="A1:H2295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H2268"/>
+      <selection activeCell="H2" sqref="H2:H2295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78477,7 +78477,7 @@
         <v>5341</v>
       </c>
       <c r="H2243" s="2">
-        <f t="shared" ref="H2243:H2268" si="35">(IF(D2243&gt;1000, (D2243*1.18)+19, IF(D2243&gt;100, D2243*1.27, D2243*1.36)))*1.18*3.6</f>
+        <f t="shared" ref="H2243:H2295" si="35">(IF(D2243&gt;1000, (D2243*1.18)+19, IF(D2243&gt;100, D2243*1.27, D2243*1.36)))*1.18*3.6</f>
         <v>14231.394719999998</v>
       </c>
     </row>
@@ -79169,7 +79169,10 @@
       <c r="F2269">
         <v>484331</v>
       </c>
-      <c r="H2269" s="2"/>
+      <c r="H2269" s="2">
+        <f t="shared" si="35"/>
+        <v>3495.93408</v>
+      </c>
     </row>
     <row r="2270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2270" t="s">
@@ -79193,7 +79196,10 @@
       <c r="G2270" t="s">
         <v>6277</v>
       </c>
-      <c r="H2270" s="2"/>
+      <c r="H2270" s="2">
+        <f t="shared" si="35"/>
+        <v>3840.9417719999997</v>
+      </c>
     </row>
     <row r="2271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2271" t="s">
@@ -79217,7 +79223,10 @@
       <c r="G2271" t="s">
         <v>6280</v>
       </c>
-      <c r="H2271" s="2"/>
+      <c r="H2271" s="2">
+        <f t="shared" si="35"/>
+        <v>4201.2172007999998</v>
+      </c>
     </row>
     <row r="2272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2272" t="s">
@@ -79238,7 +79247,10 @@
       <c r="F2272">
         <v>477295</v>
       </c>
-      <c r="H2272" s="2"/>
+      <c r="H2272" s="2">
+        <f t="shared" si="35"/>
+        <v>4116.35448</v>
+      </c>
     </row>
     <row r="2273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2273" t="s">
@@ -79262,7 +79274,10 @@
       <c r="G2273" t="s">
         <v>6285</v>
       </c>
-      <c r="H2273" s="2"/>
+      <c r="H2273" s="2">
+        <f t="shared" si="35"/>
+        <v>3916.7409600000001</v>
+      </c>
     </row>
     <row r="2274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2274" t="s">
@@ -79286,7 +79301,10 @@
       <c r="G2274" t="s">
         <v>6288</v>
       </c>
-      <c r="H2274" s="2"/>
+      <c r="H2274" s="2">
+        <f t="shared" si="35"/>
+        <v>1807.3115999999998</v>
+      </c>
     </row>
     <row r="2275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2275" t="s">
@@ -79310,7 +79328,10 @@
       <c r="G2275" t="s">
         <v>6291</v>
       </c>
-      <c r="H2275" s="2"/>
+      <c r="H2275" s="2">
+        <f t="shared" si="35"/>
+        <v>1920.6057599999999</v>
+      </c>
     </row>
     <row r="2276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2276" t="s">
@@ -79334,7 +79355,10 @@
       <c r="G2276" t="s">
         <v>6294</v>
       </c>
-      <c r="H2276" s="2"/>
+      <c r="H2276" s="2">
+        <f t="shared" si="35"/>
+        <v>1828.8914400000001</v>
+      </c>
     </row>
     <row r="2277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2277" t="s">
@@ -79358,7 +79382,10 @@
       <c r="G2277" t="s">
         <v>6297</v>
       </c>
-      <c r="H2277" s="2"/>
+      <c r="H2277" s="2">
+        <f t="shared" si="35"/>
+        <v>1974.5553599999998</v>
+      </c>
     </row>
     <row r="2278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2278" t="s">
@@ -79382,7 +79409,10 @@
       <c r="G2278" t="s">
         <v>6300</v>
       </c>
-      <c r="H2278" s="2"/>
+      <c r="H2278" s="2">
+        <f t="shared" si="35"/>
+        <v>1445.8492799999999</v>
+      </c>
     </row>
     <row r="2279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2279" t="s">
@@ -79406,7 +79436,10 @@
       <c r="G2279" t="s">
         <v>6303</v>
       </c>
-      <c r="H2279" s="2"/>
+      <c r="H2279" s="2">
+        <f t="shared" si="35"/>
+        <v>1343.3450400000002</v>
+      </c>
     </row>
     <row r="2280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2280" t="s">
@@ -79430,7 +79463,10 @@
       <c r="G2280" t="s">
         <v>6306</v>
       </c>
-      <c r="H2280" s="2"/>
+      <c r="H2280" s="2">
+        <f t="shared" si="35"/>
+        <v>1801.3771439999998</v>
+      </c>
     </row>
     <row r="2281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2281" t="s">
@@ -79454,49 +79490,94 @@
       <c r="G2281" t="s">
         <v>6309</v>
       </c>
-      <c r="H2281" s="2"/>
+      <c r="H2281" s="2">
+        <f t="shared" si="35"/>
+        <v>1801.3771439999998</v>
+      </c>
     </row>
     <row r="2282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2282" s="2"/>
+      <c r="H2282" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2283" s="2"/>
+      <c r="H2283" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2284" s="2"/>
+      <c r="H2284" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2285" s="2"/>
+      <c r="H2285" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2286" s="2"/>
+      <c r="H2286" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2287" s="2"/>
+      <c r="H2287" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2288" s="2"/>
+      <c r="H2288" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2289" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2289" s="2"/>
+      <c r="H2289" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2290" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2290" s="2"/>
+      <c r="H2290" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2291" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2291" s="2"/>
+      <c r="H2291" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2292" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2292" s="2"/>
+      <c r="H2292" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2293" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2293" s="2"/>
+      <c r="H2293" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2294" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2294" s="2"/>
+      <c r="H2294" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2295" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2295" s="2"/>
+      <c r="H2295" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473BBFE0-0CFB-43C9-AB49-708FF7E78236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBAAAD4-6913-4D82-A4B0-EECC030CA98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19388,9 +19388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1081" workbookViewId="0">
-      <selection activeCell="A1091" sqref="A1091:XFD1091"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19727,9 +19725,6 @@
       <c r="C13" t="s">
         <v>3794</v>
       </c>
-      <c r="D13">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E13" t="s">
         <v>3815</v>
       </c>
@@ -19741,7 +19736,7 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -22658,9 +22653,6 @@
       <c r="C123" t="s">
         <v>3792</v>
       </c>
-      <c r="D123">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E123" t="s">
         <v>3827</v>
       </c>
@@ -22669,7 +22661,7 @@
       </c>
       <c r="H123" s="2">
         <f t="shared" si="1"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -23789,9 +23781,6 @@
       <c r="C166" t="s">
         <v>3805</v>
       </c>
-      <c r="D166">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E166" t="s">
         <v>3814</v>
       </c>
@@ -23800,7 +23789,7 @@
       </c>
       <c r="H166" s="2">
         <f t="shared" si="2"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -24110,9 +24099,6 @@
       <c r="C178" t="s">
         <v>3794</v>
       </c>
-      <c r="D178">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E178" t="s">
         <v>3831</v>
       </c>
@@ -24124,7 +24110,7 @@
       </c>
       <c r="H178" s="2">
         <f t="shared" si="2"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -24830,9 +24816,6 @@
       <c r="C205" t="s">
         <v>3791</v>
       </c>
-      <c r="D205">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E205" t="s">
         <v>3812</v>
       </c>
@@ -24841,7 +24824,7 @@
       </c>
       <c r="H205" s="2">
         <f t="shared" si="3"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -24956,9 +24939,6 @@
       <c r="C210" t="s">
         <v>3791</v>
       </c>
-      <c r="D210">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E210" t="s">
         <v>3812</v>
       </c>
@@ -24967,7 +24947,7 @@
       </c>
       <c r="H210" s="2">
         <f t="shared" si="3"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -24980,9 +24960,6 @@
       <c r="C211" t="s">
         <v>3791</v>
       </c>
-      <c r="D211">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E211" t="s">
         <v>3812</v>
       </c>
@@ -24991,7 +24968,7 @@
       </c>
       <c r="H211" s="2">
         <f t="shared" si="3"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -28421,9 +28398,6 @@
       <c r="C340" t="s">
         <v>3792</v>
       </c>
-      <c r="D340">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E340" t="s">
         <v>3838</v>
       </c>
@@ -28432,7 +28406,7 @@
       </c>
       <c r="H340" s="2">
         <f t="shared" si="5"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -31991,9 +31965,6 @@
       <c r="C473" t="s">
         <v>3794</v>
       </c>
-      <c r="D473">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E473" t="s">
         <v>3854</v>
       </c>
@@ -32002,7 +31973,7 @@
       </c>
       <c r="H473" s="2">
         <f t="shared" si="7"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -32189,9 +32160,6 @@
       <c r="C481" t="s">
         <v>3803</v>
       </c>
-      <c r="D481">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E481" t="s">
         <v>3856</v>
       </c>
@@ -32200,7 +32168,7 @@
       </c>
       <c r="H481" s="2">
         <f t="shared" si="7"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -32690,9 +32658,6 @@
       <c r="C501">
         <v>20</v>
       </c>
-      <c r="D501">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E501" t="s">
         <v>3814</v>
       </c>
@@ -32704,7 +32669,7 @@
       </c>
       <c r="H501" s="2">
         <f t="shared" si="7"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -34331,9 +34296,6 @@
       <c r="C563" t="s">
         <v>3798</v>
       </c>
-      <c r="D563">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E563" t="s">
         <v>3859</v>
       </c>
@@ -34342,7 +34304,7 @@
       </c>
       <c r="H563" s="2">
         <f t="shared" si="8"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
@@ -45194,9 +45156,6 @@
       <c r="C973">
         <v>20</v>
       </c>
-      <c r="D973">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E973" t="s">
         <v>3813</v>
       </c>
@@ -45208,7 +45167,7 @@
       </c>
       <c r="H973" s="2">
         <f t="shared" si="15"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.25">
@@ -46643,9 +46602,6 @@
       <c r="C1033" t="s">
         <v>3802</v>
       </c>
-      <c r="D1033">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1033" t="s">
         <v>3836</v>
       </c>
@@ -46654,7 +46610,7 @@
       </c>
       <c r="H1033" s="2">
         <f t="shared" si="16"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
@@ -46787,9 +46743,6 @@
       <c r="C1039" t="s">
         <v>3791</v>
       </c>
-      <c r="D1039">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1039" t="s">
         <v>3814</v>
       </c>
@@ -46798,7 +46751,7 @@
       </c>
       <c r="H1039" s="2">
         <f t="shared" si="16"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
@@ -46811,9 +46764,6 @@
       <c r="C1040" t="s">
         <v>3791</v>
       </c>
-      <c r="D1040">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1040" t="s">
         <v>3814</v>
       </c>
@@ -46822,7 +46772,7 @@
       </c>
       <c r="H1040" s="2">
         <f t="shared" si="16"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
@@ -46883,9 +46833,6 @@
       <c r="C1043" t="s">
         <v>3798</v>
       </c>
-      <c r="D1043">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1043" t="s">
         <v>3836</v>
       </c>
@@ -46894,7 +46841,7 @@
       </c>
       <c r="H1043" s="2">
         <f t="shared" si="16"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
@@ -51638,9 +51585,6 @@
       <c r="C1222">
         <v>20</v>
       </c>
-      <c r="D1222">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1222" t="s">
         <v>3872</v>
       </c>
@@ -51652,7 +51596,7 @@
       </c>
       <c r="H1222" s="2">
         <f t="shared" si="19"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8" x14ac:dyDescent="0.25">
@@ -57704,9 +57648,6 @@
       <c r="C1448" t="s">
         <v>3807</v>
       </c>
-      <c r="D1448">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1448" t="s">
         <v>3815</v>
       </c>
@@ -57715,7 +57656,7 @@
       </c>
       <c r="H1448" s="2">
         <f t="shared" si="22"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449" spans="1:8" x14ac:dyDescent="0.25">
@@ -57728,9 +57669,6 @@
       <c r="C1449" t="s">
         <v>3811</v>
       </c>
-      <c r="D1449">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1449" t="s">
         <v>3815</v>
       </c>
@@ -57739,7 +57677,7 @@
       </c>
       <c r="H1449" s="2">
         <f t="shared" si="22"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
@@ -60395,9 +60333,6 @@
       <c r="C1552" t="s">
         <v>3792</v>
       </c>
-      <c r="D1552">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1552" t="s">
         <v>3875</v>
       </c>
@@ -60406,7 +60341,7 @@
       </c>
       <c r="H1552" s="2">
         <f t="shared" si="24"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553" spans="1:8" x14ac:dyDescent="0.25">
@@ -62177,9 +62112,6 @@
       <c r="C1621" t="s">
         <v>3792</v>
       </c>
-      <c r="D1621">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1621" t="s">
         <v>3812</v>
       </c>
@@ -62188,7 +62120,7 @@
       </c>
       <c r="H1621" s="2">
         <f t="shared" si="25"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622" spans="1:8" x14ac:dyDescent="0.25">
@@ -62654,9 +62586,6 @@
       <c r="C1639" t="s">
         <v>3792</v>
       </c>
-      <c r="D1639">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1639" t="s">
         <v>3855</v>
       </c>
@@ -62668,7 +62597,7 @@
       </c>
       <c r="H1639" s="2">
         <f t="shared" si="25"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640" spans="1:8" x14ac:dyDescent="0.25">
@@ -63419,9 +63348,6 @@
       <c r="C1669">
         <v>20</v>
       </c>
-      <c r="D1669">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1669" t="s">
         <v>3815</v>
       </c>
@@ -63430,7 +63356,7 @@
       </c>
       <c r="H1669" s="2">
         <f t="shared" si="26"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1670" spans="1:8" x14ac:dyDescent="0.25">
@@ -64040,9 +63966,6 @@
       <c r="C1694" t="s">
         <v>3792</v>
       </c>
-      <c r="D1694">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E1694" t="s">
         <v>3855</v>
       </c>
@@ -64051,7 +63974,7 @@
       </c>
       <c r="H1694" s="2">
         <f t="shared" si="26"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1695" spans="1:8" x14ac:dyDescent="0.25">
@@ -74804,9 +74727,6 @@
       <c r="C2106" t="s">
         <v>3796</v>
       </c>
-      <c r="D2106">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E2106" t="s">
         <v>3812</v>
       </c>
@@ -74818,7 +74738,7 @@
       </c>
       <c r="H2106" s="2">
         <f t="shared" si="32"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2107" spans="1:8" x14ac:dyDescent="0.25">
@@ -75095,9 +75015,6 @@
       <c r="C2117" t="s">
         <v>3798</v>
       </c>
-      <c r="D2117">
-        <v>9999999.9900000002</v>
-      </c>
       <c r="E2117" t="s">
         <v>3815</v>
       </c>
@@ -75106,7 +75023,7 @@
       </c>
       <c r="H2117" s="2">
         <f t="shared" si="33"/>
-        <v>49848000.213752076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2118" spans="1:8" x14ac:dyDescent="0.25">
